--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_3.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_3.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.93099607088407</v>
+        <v>0.9365554444277546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7399857482451089</v>
+        <v>0.6943722730677708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7692001298311446</v>
+        <v>0.7778222111407116</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9138459533722648</v>
+        <v>0.9251612221803129</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2872306971314109</v>
+        <v>0.2036752439959592</v>
       </c>
       <c r="G2" t="n">
-        <v>1.738716498740498</v>
+        <v>2.043734017282099</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8255577530486106</v>
+        <v>0.7947170681412881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2322787756923556</v>
+        <v>0.1928595615919866</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5405484219620516</v>
+        <v>1.323918327478702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5359390796829533</v>
+        <v>0.4513039374921952</v>
       </c>
       <c r="L2" t="n">
-        <v>5.41625146341952</v>
+        <v>0.9136074136888573</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5443795844454304</v>
+        <v>0.458411523369271</v>
       </c>
       <c r="N2" t="n">
-        <v>132.494939126715</v>
+        <v>37.182456989638</v>
       </c>
       <c r="O2" t="n">
-        <v>273.8301116699313</v>
+        <v>74.14704057786382</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9258602165651227</v>
+        <v>0.9363550809211207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7357217531586193</v>
+        <v>0.6939819985069873</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7658067647030175</v>
+        <v>0.7776343594161992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9085978954368867</v>
+        <v>0.9254558093111759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3086088278450722</v>
+        <v>0.2043184683945456</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767229853517746</v>
+        <v>2.046343785067108</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8376956233533062</v>
+        <v>0.7953890028676001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2464279946751787</v>
+        <v>0.1921004104331348</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5418180941804257</v>
+        <v>1.329002495599403</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5555257220373078</v>
+        <v>0.4520160045778751</v>
       </c>
       <c r="L3" t="n">
-        <v>5.744946139832145</v>
+        <v>0.9133345782755686</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5642746968374069</v>
+        <v>0.4591348047997444</v>
       </c>
       <c r="N3" t="n">
-        <v>132.3513614667075</v>
+        <v>37.17615076567454</v>
       </c>
       <c r="O3" t="n">
-        <v>273.6865340099239</v>
+        <v>74.14073435390037</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9246819372142178</v>
+        <v>0.9361497301962003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7347864435927163</v>
+        <v>0.6935868733483119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7649764508734366</v>
+        <v>0.7774412167693932</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9080508353771342</v>
+        <v>0.9257484690648757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3135134470995408</v>
+        <v>0.2049777031961086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.773484272891644</v>
+        <v>2.048985988822553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8406656077773548</v>
+        <v>0.7960798629161714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2479029160036982</v>
+        <v>0.1913462261260346</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5382128879537129</v>
+        <v>1.334135326337831</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5599227152916202</v>
+        <v>0.4527446335365098</v>
       </c>
       <c r="L4" t="n">
-        <v>5.820356018290063</v>
+        <v>0.9130549517565281</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5687409383400941</v>
+        <v>0.4598749089361159</v>
       </c>
       <c r="N4" t="n">
-        <v>132.3198260527392</v>
+        <v>37.16970814131218</v>
       </c>
       <c r="O4" t="n">
-        <v>273.6549985959556</v>
+        <v>74.13429172953801</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.923185111960663</v>
+        <v>0.9359392887586772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7336940008877811</v>
+        <v>0.6931867180413642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7638754258458592</v>
+        <v>0.7772430246627831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9062172839201285</v>
+        <v>0.9260388204153009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3197440221779559</v>
+        <v>0.2056532806471252</v>
       </c>
       <c r="G5" t="n">
-        <v>1.780789442289781</v>
+        <v>2.051661829202658</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8446039104598999</v>
+        <v>0.7967887845896771</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2528463296246797</v>
+        <v>0.1905979905751338</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5441359291187938</v>
+        <v>1.339319341023425</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5654591251168876</v>
+        <v>0.4534901108592393</v>
       </c>
       <c r="L5" t="n">
-        <v>5.916152834517568</v>
+        <v>0.9127683932033051</v>
       </c>
       <c r="M5" t="n">
-        <v>0.57436454108573</v>
+        <v>0.4606321267814745</v>
       </c>
       <c r="N5" t="n">
-        <v>132.2804690679951</v>
+        <v>37.16312726371515</v>
       </c>
       <c r="O5" t="n">
-        <v>273.6156416112115</v>
+        <v>74.12771085194098</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9217716137483389</v>
+        <v>0.9357234768764064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7327063327420333</v>
+        <v>0.6927811770936876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7626640889689722</v>
+        <v>0.7770387836397563</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9051148353701672</v>
+        <v>0.9263270593361279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3256277462226804</v>
+        <v>0.206346098768117</v>
       </c>
       <c r="G6" t="n">
-        <v>1.787393983728191</v>
+        <v>2.054373683387117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8489367922311768</v>
+        <v>0.7975193428864689</v>
       </c>
       <c r="I6" t="n">
-        <v>0.255818626451958</v>
+        <v>0.189855198756187</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5458332891178879</v>
+        <v>1.344551385798471</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5706380168045943</v>
+        <v>0.4542533420549781</v>
       </c>
       <c r="L6" t="n">
-        <v>6.006616720106308</v>
+        <v>0.9124745217040429</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5796249951405256</v>
+        <v>0.461407378105595</v>
       </c>
       <c r="N6" t="n">
-        <v>132.2440008656256</v>
+        <v>37.15640085771889</v>
       </c>
       <c r="O6" t="n">
-        <v>273.5791734088419</v>
+        <v>74.12098444594471</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9201961717804693</v>
+        <v>0.9355019176125041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7314270245931451</v>
+        <v>0.6923698713706771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7616287199635208</v>
+        <v>0.7768277731061075</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9030755937507947</v>
+        <v>0.9266124722073689</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3321855654732481</v>
+        <v>0.2070573676347336</v>
       </c>
       <c r="G7" t="n">
-        <v>1.795948723210478</v>
+        <v>2.057124086650776</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8526402471295326</v>
+        <v>0.7982741153302366</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2613165985754897</v>
+        <v>0.1891196896681997</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5484566443113673</v>
+        <v>1.349842483644798</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5763554159312188</v>
+        <v>0.4550355674392207</v>
       </c>
       <c r="L7" t="n">
-        <v>6.107445006049964</v>
+        <v>0.9121728239829844</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5854324375880922</v>
+        <v>0.4622019227577008</v>
       </c>
       <c r="N7" t="n">
-        <v>132.2041230681234</v>
+        <v>37.14951877156091</v>
       </c>
       <c r="O7" t="n">
-        <v>273.5392956113398</v>
+        <v>74.11410235978673</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9081841487312917</v>
+        <v>0.935275432325143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7217547963321154</v>
+        <v>0.6919538962140219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7524984398525618</v>
+        <v>0.7766125850402464</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8872043173973254</v>
+        <v>0.9268957707785854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3821859320984199</v>
+        <v>0.2077844504513551</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8606269581285</v>
+        <v>2.059905714438719</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8852987296823742</v>
+        <v>0.7990438305645009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3041069350060955</v>
+        <v>0.1883896291322552</v>
       </c>
       <c r="J8" t="n">
-        <v>0.639622532514917</v>
+        <v>1.355141469357068</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6182118828511952</v>
+        <v>0.4558337969604219</v>
       </c>
       <c r="L8" t="n">
-        <v>6.87621448119733</v>
+        <v>0.9118644184853011</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6279481020209418</v>
+        <v>0.463012723595924</v>
       </c>
       <c r="N8" t="n">
-        <v>131.9236961110996</v>
+        <v>37.14250806502724</v>
       </c>
       <c r="O8" t="n">
-        <v>273.2588686543161</v>
+        <v>74.10709165325306</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9068251572261447</v>
+        <v>0.9251167338836473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7209276595748964</v>
+        <v>0.6753849723260941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.751299298096846</v>
+        <v>0.7673387970489811</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8862647990863554</v>
+        <v>0.9337462453828526</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3878427705193634</v>
+        <v>0.2403967899198995</v>
       </c>
       <c r="G9" t="n">
-        <v>1.866158025432638</v>
+        <v>2.170702184770172</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8895879902123357</v>
+        <v>0.8322156324841332</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3066399577897569</v>
+        <v>0.1707359532256393</v>
       </c>
       <c r="J9" t="n">
-        <v>0.640291792317779</v>
+        <v>1.540775935450911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6227702389480115</v>
+        <v>0.4903027533268597</v>
       </c>
       <c r="L9" t="n">
-        <v>6.963189937526742</v>
+        <v>0.8980312972032645</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6325782476695986</v>
+        <v>0.4980245315688181</v>
       </c>
       <c r="N9" t="n">
-        <v>131.8943105042144</v>
+        <v>36.85092885897772</v>
       </c>
       <c r="O9" t="n">
-        <v>273.2294830474307</v>
+        <v>73.81551244720355</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9047867666106744</v>
+        <v>0.9204279694129072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7188090623310701</v>
+        <v>0.6702332626728594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7497319751738953</v>
+        <v>0.7620264100319283</v>
       </c>
       <c r="E10" t="n">
-        <v>0.883549683007129</v>
+        <v>0.9340429364858425</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3963276258748316</v>
+        <v>0.2554490704348152</v>
       </c>
       <c r="G10" t="n">
-        <v>1.880325094957348</v>
+        <v>2.205151690942794</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8951942134291258</v>
+        <v>0.8512177328142339</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3139601460273492</v>
+        <v>0.1699713801297408</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6352769359744962</v>
+        <v>1.649277908576967</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6295455709278174</v>
+        <v>0.50541969731582</v>
       </c>
       <c r="L10" t="n">
-        <v>7.093646936916841</v>
+        <v>0.891646596647363</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6394602843552392</v>
+        <v>0.5133795523142045</v>
       </c>
       <c r="N10" t="n">
-        <v>131.8510281434308</v>
+        <v>36.72946444428794</v>
       </c>
       <c r="O10" t="n">
-        <v>273.1862006866472</v>
+        <v>73.69404803251376</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.902906423815614</v>
+        <v>0.9199388596527094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7173293885167835</v>
+        <v>0.6695202757981369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7484497845600939</v>
+        <v>0.7616866970342853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8811819092087618</v>
+        <v>0.9340357504816271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4041546029584675</v>
+        <v>0.2570192532322285</v>
       </c>
       <c r="G11" t="n">
-        <v>1.890219680566754</v>
+        <v>2.209919437457065</v>
       </c>
       <c r="H11" t="n">
-        <v>0.89978053490901</v>
+        <v>0.8524328665091114</v>
       </c>
       <c r="I11" t="n">
-        <v>0.32034386937557</v>
+        <v>0.1699898984655946</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6385756386491125</v>
+        <v>1.656888181481996</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6357315494439988</v>
+        <v>0.5069706630883374</v>
       </c>
       <c r="L11" t="n">
-        <v>7.213988875800702</v>
+        <v>0.8909805748462426</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6457436858493406</v>
+        <v>0.5149549442472421</v>
       </c>
       <c r="N11" t="n">
-        <v>131.8119155872685</v>
+        <v>36.71720856318485</v>
       </c>
       <c r="O11" t="n">
-        <v>273.1470881304849</v>
+        <v>73.68179215141068</v>
       </c>
     </row>
   </sheetData>
